--- a/frontend/Sample_data/Compound_to_Cell_plates.xlsx
+++ b/frontend/Sample_data/Compound_to_Cell_plates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b.seashoreludlow/Desktop/For Breeze example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dahlb\draw\assayLoader\frontend\Sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0001AE47-E525-B448-8E5A-5D8060305F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13A2B3FD-0409-449B-A7FE-797875ED78C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13700" yWindow="540" windowWidth="25200" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="5850" windowWidth="16350" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,356 +544,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>60</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>29</v>
-      </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" t="s">
         <v>0</v>
       </c>
     </row>
